--- a/assets/data.xlsx
+++ b/assets/data.xlsx
@@ -985,7 +985,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="3" outlineLevelCol="2"/>

--- a/assets/data.xlsx
+++ b/assets/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25380" windowHeight="11840"/>
+    <workbookView windowWidth="25380" windowHeight="11860"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="15">
   <si>
     <t>database</t>
   </si>
@@ -41,6 +41,24 @@
   </si>
   <si>
     <t>{isActive:true}</t>
+  </si>
+  <si>
+    <t>action</t>
+  </si>
+  <si>
+    <t>{actionType:"reject"}</t>
+  </si>
+  <si>
+    <t>{actionValue:"lose"}</t>
+  </si>
+  <si>
+    <t>{actionOrder:4}</t>
+  </si>
+  <si>
+    <t>{actionValue:"lose", actionOrder:4}</t>
+  </si>
+  <si>
+    <t>{actionLavel:"Dibatalkan / Berhenti"}</t>
   </si>
 </sst>
 </file>
@@ -48,10 +66,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -62,14 +80,84 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -78,105 +166,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -191,18 +188,39 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -215,19 +233,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -239,6 +365,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -251,151 +413,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -406,6 +424,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -429,36 +471,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -489,6 +501,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -497,162 +524,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -982,13 +1000,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="3" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="19.5625" customWidth="1"/>
     <col min="2" max="2" width="10.3125" customWidth="1"/>
@@ -1041,6 +1059,61 @@
         <v>8</v>
       </c>
     </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/assets/data.xlsx
+++ b/assets/data.xlsx
@@ -58,7 +58,7 @@
     <t>{actionValue:"lose", actionOrder:4}</t>
   </si>
   <si>
-    <t>{actionLavel:"Dibatalkan / Berhenti"}</t>
+    <t>{actionLabel:"Dibatalkan / Berhenti"}</t>
   </si>
 </sst>
 </file>
@@ -1002,8 +1002,8 @@
   <sheetPr/>
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" zoomScale="162" zoomScaleNormal="162" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="2"/>

--- a/assets/data.xlsx
+++ b/assets/data.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10719"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/falditelkomdev/development/nodejs_project/scan-db/assets/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48E301A1-089F-FD42-A4BA-97B75ACD31D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="23500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28800" windowHeight="13940"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>database</t>
   </si>
@@ -31,53 +25,47 @@
     <t>queries</t>
   </si>
   <si>
-    <t>tds-fabdigital</t>
-  </si>
-  <si>
-    <t>activity</t>
-  </si>
-  <si>
-    <t>{activityId:"ACT-402789-1686639232900"}</t>
-  </si>
-  <si>
-    <t>{nipnas:2916978}</t>
-  </si>
-  <si>
     <t>nameIndex</t>
   </si>
   <si>
     <t>indexes</t>
   </si>
   <si>
-    <t>activity_nipnas</t>
-  </si>
-  <si>
-    <t>activity_activityId</t>
-  </si>
-  <si>
-    <t>{"nipnas":1}</t>
-  </si>
-  <si>
-    <t>{"activityId":1}</t>
-  </si>
-  <si>
-    <t>approval_ids</t>
-  </si>
-  <si>
-    <t>{regional:7, approvalHierarchy: 165874}</t>
-  </si>
-  <si>
-    <t>approval_ids_pack_regional_app</t>
-  </si>
-  <si>
-    <t>{"regional":1, "approvalHierarchy":1}</t>
+    <t>test</t>
+  </si>
+  <si>
+    <t>auth</t>
+  </si>
+  <si>
+    <t>{username:"myadmin"}</t>
+  </si>
+  <si>
+    <t>users_username</t>
+  </si>
+  <si>
+    <t>{"username":1}</t>
+  </si>
+  <si>
+    <t>{roleId:"user"}</t>
+  </si>
+  <si>
+    <t>users_roleId</t>
+  </si>
+  <si>
+    <t>{"roleId":1}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -89,19 +77,349 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -109,9 +427,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -123,17 +683,61 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
+    <cellStyle name="Total" xfId="25" builtinId="25"/>
+    <cellStyle name="Output" xfId="26" builtinId="21"/>
+    <cellStyle name="Currency" xfId="27" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
+    <cellStyle name="Note" xfId="29" builtinId="10"/>
+    <cellStyle name="Input" xfId="30" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
+    <cellStyle name="Good" xfId="33" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
+    <cellStyle name="Title" xfId="39" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
+    <cellStyle name="Comma" xfId="44" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
+    <cellStyle name="Percent" xfId="47" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -391,29 +995,29 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="235" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" zoomScale="92" zoomScaleNormal="92" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="19.5" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" customWidth="1"/>
+    <col min="2" max="2" width="10.3359375" customWidth="1"/>
     <col min="3" max="3" width="48" customWidth="1"/>
     <col min="4" max="4" width="28.1640625" customWidth="1"/>
-    <col min="5" max="5" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.8359375" customWidth="1"/>
     <col min="6" max="6" width="10.5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -424,79 +1028,70 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="E2" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="1" t="s">
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="D3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>11</v>
-      </c>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1">
       <c r="A6" s="1"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1">
       <c r="A7" s="1"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:1">
       <c r="A9" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>